--- a/data/pca/factorExposure/factorExposure_2011-08-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.01527234835157926</v>
+        <v>0.0148554017440071</v>
       </c>
       <c r="C2">
-        <v>0.008131712964437493</v>
+        <v>-0.005667216885963555</v>
       </c>
       <c r="D2">
-        <v>-0.03804608443614319</v>
+        <v>-0.02731558161225314</v>
       </c>
       <c r="E2">
-        <v>0.06554232205240948</v>
+        <v>-0.03543318533781055</v>
       </c>
       <c r="F2">
-        <v>-0.002164137177250452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01890311173859687</v>
+      </c>
+      <c r="G2">
+        <v>0.01597575710030298</v>
+      </c>
+      <c r="H2">
+        <v>0.01170633758731059</v>
+      </c>
+      <c r="I2">
+        <v>-0.008475412530169184</v>
+      </c>
+      <c r="J2">
+        <v>-0.03627122921750685</v>
+      </c>
+      <c r="K2">
+        <v>-0.07568264562223569</v>
+      </c>
+      <c r="L2">
+        <v>-0.007867275469744086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.07055485975584705</v>
+        <v>0.09082296661267583</v>
       </c>
       <c r="C4">
-        <v>0.03810412739382777</v>
+        <v>-0.0548643537424896</v>
       </c>
       <c r="D4">
-        <v>-0.05984639703129743</v>
+        <v>-0.02801054759748937</v>
       </c>
       <c r="E4">
-        <v>0.02081653667999015</v>
+        <v>-0.03275469822416188</v>
       </c>
       <c r="F4">
-        <v>-0.03263124558323598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.08353132926925802</v>
+      </c>
+      <c r="G4">
+        <v>0.05415123931584222</v>
+      </c>
+      <c r="H4">
+        <v>0.005156457108156374</v>
+      </c>
+      <c r="I4">
+        <v>0.08142865348221733</v>
+      </c>
+      <c r="J4">
+        <v>0.0189683688339967</v>
+      </c>
+      <c r="K4">
+        <v>0.04953742975873777</v>
+      </c>
+      <c r="L4">
+        <v>-0.01759515606031864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1195546544355366</v>
+        <v>0.1296913831782124</v>
       </c>
       <c r="C6">
-        <v>4.509933284344802e-05</v>
+        <v>-0.02223933768960705</v>
       </c>
       <c r="D6">
-        <v>-0.05764547459341005</v>
+        <v>-0.061425777780632</v>
       </c>
       <c r="E6">
-        <v>0.07513790948954244</v>
+        <v>-0.0148396833398238</v>
       </c>
       <c r="F6">
-        <v>-0.05408663984502873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.05671027141021813</v>
+      </c>
+      <c r="G6">
+        <v>0.05385791981253567</v>
+      </c>
+      <c r="H6">
+        <v>-0.168741828183678</v>
+      </c>
+      <c r="I6">
+        <v>0.0519845843571168</v>
+      </c>
+      <c r="J6">
+        <v>0.4558488921592753</v>
+      </c>
+      <c r="K6">
+        <v>-0.01650650940374246</v>
+      </c>
+      <c r="L6">
+        <v>0.04322643199996366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.06750214419375247</v>
+        <v>0.06894930516794191</v>
       </c>
       <c r="C7">
-        <v>0.01041943456995288</v>
+        <v>-0.05188267324186601</v>
       </c>
       <c r="D7">
-        <v>-0.05330939864225943</v>
+        <v>-0.04068989660054989</v>
       </c>
       <c r="E7">
-        <v>0.0571678270415139</v>
+        <v>-0.03626272169131837</v>
       </c>
       <c r="F7">
-        <v>-0.0167442441524764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04363335644965262</v>
+      </c>
+      <c r="G7">
+        <v>-0.00225327293433676</v>
+      </c>
+      <c r="H7">
+        <v>0.002188379335843922</v>
+      </c>
+      <c r="I7">
+        <v>0.03858485139051974</v>
+      </c>
+      <c r="J7">
+        <v>-0.06180297670894846</v>
+      </c>
+      <c r="K7">
+        <v>0.05176754335368255</v>
+      </c>
+      <c r="L7">
+        <v>-0.0316317935670953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.03323644749895931</v>
+        <v>0.03793611175203523</v>
       </c>
       <c r="C8">
-        <v>0.03697930478653669</v>
+        <v>-0.01584468321383556</v>
       </c>
       <c r="D8">
-        <v>0.01002684572112823</v>
+        <v>0.01388053453004548</v>
       </c>
       <c r="E8">
-        <v>0.0547702240635121</v>
+        <v>-0.06531050471679289</v>
       </c>
       <c r="F8">
-        <v>-0.03959487202398713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02620898431811082</v>
+      </c>
+      <c r="G8">
+        <v>0.06402220279425712</v>
+      </c>
+      <c r="H8">
+        <v>-0.01841550435974783</v>
+      </c>
+      <c r="I8">
+        <v>0.1043788374134094</v>
+      </c>
+      <c r="J8">
+        <v>0.007227888853647384</v>
+      </c>
+      <c r="K8">
+        <v>0.0520563841540977</v>
+      </c>
+      <c r="L8">
+        <v>0.005112762359038864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.07412862251603575</v>
+        <v>0.08380810065977225</v>
       </c>
       <c r="C9">
-        <v>0.05140402796870493</v>
+        <v>-0.05476576704340824</v>
       </c>
       <c r="D9">
-        <v>-0.06054822377228412</v>
+        <v>-0.02679835803443301</v>
       </c>
       <c r="E9">
-        <v>0.02715599162703873</v>
+        <v>-0.02453231144121204</v>
       </c>
       <c r="F9">
-        <v>-0.02222794332543594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.0657177519487701</v>
+      </c>
+      <c r="G9">
+        <v>0.05929471785527512</v>
+      </c>
+      <c r="H9">
+        <v>0.003834007584688649</v>
+      </c>
+      <c r="I9">
+        <v>0.08794868610579661</v>
+      </c>
+      <c r="J9">
+        <v>0.01193659204459234</v>
+      </c>
+      <c r="K9">
+        <v>0.0322614450013597</v>
+      </c>
+      <c r="L9">
+        <v>0.00768325614191689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.02903867942067957</v>
+        <v>0.08714584786846989</v>
       </c>
       <c r="C10">
-        <v>-0.1445936387410843</v>
+        <v>0.1820878569549562</v>
       </c>
       <c r="D10">
-        <v>0.03496199780939361</v>
+        <v>-0.0003303518365343217</v>
       </c>
       <c r="E10">
-        <v>0.0697287817117621</v>
+        <v>-0.04926235035225857</v>
       </c>
       <c r="F10">
-        <v>-0.04619390768636217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03629841582249849</v>
+      </c>
+      <c r="G10">
+        <v>-0.03805764179753845</v>
+      </c>
+      <c r="H10">
+        <v>-0.008646483058476194</v>
+      </c>
+      <c r="I10">
+        <v>-0.0296448555001526</v>
+      </c>
+      <c r="J10">
+        <v>-0.02610745506326245</v>
+      </c>
+      <c r="K10">
+        <v>-0.02644471667011986</v>
+      </c>
+      <c r="L10">
+        <v>-0.02231998501651761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.06872573370057201</v>
+        <v>0.07074548786508349</v>
       </c>
       <c r="C11">
-        <v>0.05519863417859128</v>
+        <v>-0.05943035220615482</v>
       </c>
       <c r="D11">
-        <v>-0.05608770938492796</v>
+        <v>-0.03034102610732323</v>
       </c>
       <c r="E11">
-        <v>0.03776313065752065</v>
+        <v>-0.01722734671581224</v>
       </c>
       <c r="F11">
-        <v>0.00843591784220632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03148620705249479</v>
+      </c>
+      <c r="G11">
+        <v>0.07922946897646657</v>
+      </c>
+      <c r="H11">
+        <v>0.01121833237800561</v>
+      </c>
+      <c r="I11">
+        <v>0.05919476075959858</v>
+      </c>
+      <c r="J11">
+        <v>-0.067598261294847</v>
+      </c>
+      <c r="K11">
+        <v>-0.02934148611302278</v>
+      </c>
+      <c r="L11">
+        <v>0.02245918746214319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06410230772126933</v>
+        <v>0.07042292887555822</v>
       </c>
       <c r="C12">
-        <v>0.03613332312072398</v>
+        <v>-0.04878879819515826</v>
       </c>
       <c r="D12">
-        <v>-0.04944204364514912</v>
+        <v>-0.0152673662011081</v>
       </c>
       <c r="E12">
-        <v>0.02351850732343439</v>
+        <v>-0.01331740457090972</v>
       </c>
       <c r="F12">
-        <v>-0.01353534911107517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.04008787259207661</v>
+      </c>
+      <c r="G12">
+        <v>0.07227422082516242</v>
+      </c>
+      <c r="H12">
+        <v>0.003531143493058734</v>
+      </c>
+      <c r="I12">
+        <v>0.09258562302340866</v>
+      </c>
+      <c r="J12">
+        <v>-0.05977636892444358</v>
+      </c>
+      <c r="K12">
+        <v>-0.01545591266362357</v>
+      </c>
+      <c r="L12">
+        <v>-0.01144727349283444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.07329519284903992</v>
+        <v>0.06232973779543782</v>
       </c>
       <c r="C13">
-        <v>0.02456297470677019</v>
+        <v>-0.03937366805774447</v>
       </c>
       <c r="D13">
-        <v>-0.02114466624197037</v>
+        <v>0.01705252922639605</v>
       </c>
       <c r="E13">
-        <v>0.02513133184536978</v>
+        <v>-0.02450077981984259</v>
       </c>
       <c r="F13">
-        <v>-0.02263143629288307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02009468311844806</v>
+      </c>
+      <c r="G13">
+        <v>0.02646541497907227</v>
+      </c>
+      <c r="H13">
+        <v>0.0008086531650594679</v>
+      </c>
+      <c r="I13">
+        <v>0.06447498733646417</v>
+      </c>
+      <c r="J13">
+        <v>-0.01455085983095051</v>
+      </c>
+      <c r="K13">
+        <v>0.09123883178798896</v>
+      </c>
+      <c r="L13">
+        <v>-0.02853618586533417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.03692176221149465</v>
+        <v>0.0441579021619543</v>
       </c>
       <c r="C14">
-        <v>-0.002491627588921298</v>
+        <v>-0.0151613019917128</v>
       </c>
       <c r="D14">
-        <v>-0.04048165918428238</v>
+        <v>-0.02591158855462142</v>
       </c>
       <c r="E14">
-        <v>0.009008288203104103</v>
+        <v>-0.00296042029809006</v>
       </c>
       <c r="F14">
-        <v>-0.005024554289288799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.04286760964478385</v>
+      </c>
+      <c r="G14">
+        <v>0.03916400098522674</v>
+      </c>
+      <c r="H14">
+        <v>0.04123147298408407</v>
+      </c>
+      <c r="I14">
+        <v>0.05791385317172209</v>
+      </c>
+      <c r="J14">
+        <v>0.02196495889293971</v>
+      </c>
+      <c r="K14">
+        <v>0.05111659155478464</v>
+      </c>
+      <c r="L14">
+        <v>0.01363865726457668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.05201970663947075</v>
+        <v>0.04005930740257143</v>
       </c>
       <c r="C15">
-        <v>0.0094738798078254</v>
+        <v>-0.01658741811876441</v>
       </c>
       <c r="D15">
-        <v>-0.007482023921581557</v>
+        <v>0.0187242257800342</v>
       </c>
       <c r="E15">
-        <v>0.005602996470595812</v>
+        <v>0.002437364743407334</v>
       </c>
       <c r="F15">
-        <v>-0.03331289808693929</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.02356412374673085</v>
+      </c>
+      <c r="G15">
+        <v>0.01448059336946486</v>
+      </c>
+      <c r="H15">
+        <v>0.006118696666559105</v>
+      </c>
+      <c r="I15">
+        <v>0.02757268705077352</v>
+      </c>
+      <c r="J15">
+        <v>0.03510168686295265</v>
+      </c>
+      <c r="K15">
+        <v>0.07018244854538809</v>
+      </c>
+      <c r="L15">
+        <v>-0.001134176273635831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.05522413554462434</v>
+        <v>0.07102727869958493</v>
       </c>
       <c r="C16">
-        <v>0.05188379710979617</v>
+        <v>-0.06060205856749247</v>
       </c>
       <c r="D16">
-        <v>-0.04534215622387827</v>
+        <v>-0.0219138301026787</v>
       </c>
       <c r="E16">
-        <v>0.02108787787110242</v>
+        <v>-0.0135623994193348</v>
       </c>
       <c r="F16">
-        <v>-0.02686943072973594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.04571220574769754</v>
+      </c>
+      <c r="G16">
+        <v>0.06028711619828623</v>
+      </c>
+      <c r="H16">
+        <v>0.01776861022014167</v>
+      </c>
+      <c r="I16">
+        <v>0.06368775446660711</v>
+      </c>
+      <c r="J16">
+        <v>-0.05017896338904188</v>
+      </c>
+      <c r="K16">
+        <v>-0.01325794496821916</v>
+      </c>
+      <c r="L16">
+        <v>0.0236064156245039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.06032046707269623</v>
+        <v>0.05492662731798638</v>
       </c>
       <c r="C20">
-        <v>0.04441788766874603</v>
+        <v>-0.04023451884446495</v>
       </c>
       <c r="D20">
-        <v>-0.02133415790082091</v>
+        <v>-0.01077409569616442</v>
       </c>
       <c r="E20">
-        <v>0.03142853663388269</v>
+        <v>-0.02339209069873405</v>
       </c>
       <c r="F20">
-        <v>-0.01793804915280049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01087319739140368</v>
+      </c>
+      <c r="G20">
+        <v>0.04897498135859147</v>
+      </c>
+      <c r="H20">
+        <v>0.02245671985058824</v>
+      </c>
+      <c r="I20">
+        <v>0.1125062234396132</v>
+      </c>
+      <c r="J20">
+        <v>-0.02327889275309141</v>
+      </c>
+      <c r="K20">
+        <v>0.02568281440326337</v>
+      </c>
+      <c r="L20">
+        <v>-0.03529321560589163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.03817468905922674</v>
+        <v>0.02675307465966992</v>
       </c>
       <c r="C21">
-        <v>0.0312344095217096</v>
+        <v>-0.02131493180601316</v>
       </c>
       <c r="D21">
-        <v>0.02067984445654379</v>
+        <v>0.03703377879422056</v>
       </c>
       <c r="E21">
-        <v>0.01076764920455081</v>
+        <v>-0.01766345935003628</v>
       </c>
       <c r="F21">
-        <v>-0.04993484041641561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01133404261961044</v>
+      </c>
+      <c r="G21">
+        <v>0.006566997952617543</v>
+      </c>
+      <c r="H21">
+        <v>-0.06810221883773691</v>
+      </c>
+      <c r="I21">
+        <v>0.04334114309622249</v>
+      </c>
+      <c r="J21">
+        <v>0.05239330485586127</v>
+      </c>
+      <c r="K21">
+        <v>0.05221910899380411</v>
+      </c>
+      <c r="L21">
+        <v>-0.0001321220792186463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.1095715823178494</v>
+        <v>0.08281729566545669</v>
       </c>
       <c r="C22">
-        <v>0.12439744241331</v>
+        <v>-0.09266267914127324</v>
       </c>
       <c r="D22">
-        <v>0.02883114052823734</v>
+        <v>0.4301715472461944</v>
       </c>
       <c r="E22">
-        <v>-0.03139749732097515</v>
+        <v>-0.130346958605505</v>
       </c>
       <c r="F22">
-        <v>-0.451716747851838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.373165439060986</v>
+      </c>
+      <c r="G22">
+        <v>-0.2595127950452575</v>
+      </c>
+      <c r="H22">
+        <v>0.004492063088204834</v>
+      </c>
+      <c r="I22">
+        <v>-0.2023006528456595</v>
+      </c>
+      <c r="J22">
+        <v>0.03309325557443526</v>
+      </c>
+      <c r="K22">
+        <v>-0.06308775013628246</v>
+      </c>
+      <c r="L22">
+        <v>-0.06545012299621017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.1106351142710363</v>
+        <v>0.08376720662818715</v>
       </c>
       <c r="C23">
-        <v>0.1234729362575933</v>
+        <v>-0.09310272143644552</v>
       </c>
       <c r="D23">
-        <v>0.0269022570311513</v>
+        <v>0.4307600610570921</v>
       </c>
       <c r="E23">
-        <v>-0.0303891405228469</v>
+        <v>-0.1315071364705692</v>
       </c>
       <c r="F23">
-        <v>-0.4533048949369252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3776414237835866</v>
+      </c>
+      <c r="G23">
+        <v>-0.2541380945153002</v>
+      </c>
+      <c r="H23">
+        <v>0.005488992347171933</v>
+      </c>
+      <c r="I23">
+        <v>-0.2030393038592724</v>
+      </c>
+      <c r="J23">
+        <v>0.03919068807320032</v>
+      </c>
+      <c r="K23">
+        <v>-0.06459218650097923</v>
+      </c>
+      <c r="L23">
+        <v>-0.06296984367069371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.07741928990505033</v>
+        <v>0.07908390559878443</v>
       </c>
       <c r="C24">
-        <v>0.04761805344223492</v>
+        <v>-0.06080860109479719</v>
       </c>
       <c r="D24">
-        <v>-0.04704018475429853</v>
+        <v>-0.01474272796117932</v>
       </c>
       <c r="E24">
-        <v>0.03997647535749512</v>
+        <v>-0.02287203312927966</v>
       </c>
       <c r="F24">
-        <v>-0.02688257572837657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.04761847743742496</v>
+      </c>
+      <c r="G24">
+        <v>0.07863164929866627</v>
+      </c>
+      <c r="H24">
+        <v>0.0001477043769383349</v>
+      </c>
+      <c r="I24">
+        <v>0.07080472952642124</v>
+      </c>
+      <c r="J24">
+        <v>-0.04537133027235465</v>
+      </c>
+      <c r="K24">
+        <v>-0.02134369411394536</v>
+      </c>
+      <c r="L24">
+        <v>0.006252897019436687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07119000558853111</v>
+        <v>0.07569305127657548</v>
       </c>
       <c r="C25">
-        <v>0.02967357231510705</v>
+        <v>-0.0403743044308919</v>
       </c>
       <c r="D25">
-        <v>-0.05088561292126494</v>
+        <v>-0.02472401256340687</v>
       </c>
       <c r="E25">
-        <v>0.04888536865921522</v>
+        <v>-0.02215501692002322</v>
       </c>
       <c r="F25">
-        <v>-0.04394294138129153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.05304185095486776</v>
+      </c>
+      <c r="G25">
+        <v>0.0764107004581077</v>
+      </c>
+      <c r="H25">
+        <v>0.02084074082173532</v>
+      </c>
+      <c r="I25">
+        <v>0.0916566329323989</v>
+      </c>
+      <c r="J25">
+        <v>-0.05204462274212591</v>
+      </c>
+      <c r="K25">
+        <v>-0.03637718285516005</v>
+      </c>
+      <c r="L25">
+        <v>0.01213594033786005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.05489774366693269</v>
+        <v>0.04576362975608694</v>
       </c>
       <c r="C26">
-        <v>0.02058048982809391</v>
+        <v>-0.02548857028218154</v>
       </c>
       <c r="D26">
-        <v>-0.01004919729859932</v>
+        <v>0.01985669209934841</v>
       </c>
       <c r="E26">
-        <v>0.03820001608995489</v>
+        <v>-0.01073977375365953</v>
       </c>
       <c r="F26">
-        <v>0.01109092772799291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01510544446054374</v>
+      </c>
+      <c r="G26">
+        <v>0.02232350422437206</v>
+      </c>
+      <c r="H26">
+        <v>0.008171736673808019</v>
+      </c>
+      <c r="I26">
+        <v>0.03867244766362606</v>
+      </c>
+      <c r="J26">
+        <v>0.01671861708014101</v>
+      </c>
+      <c r="K26">
+        <v>0.1283525264342703</v>
+      </c>
+      <c r="L26">
+        <v>0.01557940413137593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.06960619451230408</v>
+        <v>0.1111296548550804</v>
       </c>
       <c r="C28">
-        <v>-0.2899948528072297</v>
+        <v>0.2957320959824393</v>
       </c>
       <c r="D28">
-        <v>0.06739574153810203</v>
+        <v>0.02488705910105449</v>
       </c>
       <c r="E28">
-        <v>0.07991656221677257</v>
+        <v>-0.03676562624656411</v>
       </c>
       <c r="F28">
-        <v>0.0002502989632782027</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.0007608710256686719</v>
+      </c>
+      <c r="G28">
+        <v>-0.0006142181209893015</v>
+      </c>
+      <c r="H28">
+        <v>-0.02910157301371701</v>
+      </c>
+      <c r="I28">
+        <v>-0.02894692962649427</v>
+      </c>
+      <c r="J28">
+        <v>0.009412081011551953</v>
+      </c>
+      <c r="K28">
+        <v>0.07088956013021679</v>
+      </c>
+      <c r="L28">
+        <v>0.004587936918544871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05160619735088615</v>
+        <v>0.04940548961105273</v>
       </c>
       <c r="C29">
-        <v>-0.003079599843951428</v>
+        <v>-0.01627007308328708</v>
       </c>
       <c r="D29">
-        <v>-0.02355224402910703</v>
+        <v>-0.008765388860448786</v>
       </c>
       <c r="E29">
-        <v>0.01455472416053624</v>
+        <v>-0.01735018772783095</v>
       </c>
       <c r="F29">
-        <v>-0.03169942024396512</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03468856935262815</v>
+      </c>
+      <c r="G29">
+        <v>0.03938886845021372</v>
+      </c>
+      <c r="H29">
+        <v>0.04503949526789656</v>
+      </c>
+      <c r="I29">
+        <v>0.0449227603916753</v>
+      </c>
+      <c r="J29">
+        <v>0.01427544353757112</v>
+      </c>
+      <c r="K29">
+        <v>0.04130278039014337</v>
+      </c>
+      <c r="L29">
+        <v>0.00437757894225868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.146918718012718</v>
+        <v>0.1206880064752609</v>
       </c>
       <c r="C30">
-        <v>0.05503239460583918</v>
+        <v>-0.06986982925076943</v>
       </c>
       <c r="D30">
-        <v>-0.09827006701174021</v>
+        <v>0.005047642774334232</v>
       </c>
       <c r="E30">
-        <v>0.07812085777036051</v>
+        <v>-0.05873609612761893</v>
       </c>
       <c r="F30">
-        <v>-0.07591715417709456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1226791107998324</v>
+      </c>
+      <c r="G30">
+        <v>0.09424600472088575</v>
+      </c>
+      <c r="H30">
+        <v>-0.05823140540616552</v>
+      </c>
+      <c r="I30">
+        <v>0.2197650786727912</v>
+      </c>
+      <c r="J30">
+        <v>-0.0761903862577069</v>
+      </c>
+      <c r="K30">
+        <v>0.1458010437945866</v>
+      </c>
+      <c r="L30">
+        <v>-0.4114711894410383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.05590945286114946</v>
+        <v>0.04357012687895327</v>
       </c>
       <c r="C31">
-        <v>0.008495251994387616</v>
+        <v>-0.04053425956836392</v>
       </c>
       <c r="D31">
-        <v>-0.02847786127276719</v>
+        <v>0.003331024554128992</v>
       </c>
       <c r="E31">
-        <v>0.001163714603548179</v>
+        <v>0.007273630469715598</v>
       </c>
       <c r="F31">
-        <v>-0.006046627013535659</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01923684720054911</v>
+      </c>
+      <c r="G31">
+        <v>0.008772044134139704</v>
+      </c>
+      <c r="H31">
+        <v>0.05350538245024361</v>
+      </c>
+      <c r="I31">
+        <v>0.04668124559171405</v>
+      </c>
+      <c r="J31">
+        <v>0.01651850862182756</v>
+      </c>
+      <c r="K31">
+        <v>0.01839088587311699</v>
+      </c>
+      <c r="L31">
+        <v>-0.01049019647079245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.04772651981534601</v>
+        <v>0.05056382544513902</v>
       </c>
       <c r="C32">
-        <v>0.01558505303793589</v>
+        <v>-0.003903230369088668</v>
       </c>
       <c r="D32">
-        <v>-0.01018605609229914</v>
+        <v>0.03840828665571297</v>
       </c>
       <c r="E32">
-        <v>-0.009709799783357193</v>
+        <v>-0.007616565472335259</v>
       </c>
       <c r="F32">
-        <v>-0.07632989831656846</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.05896938573392257</v>
+      </c>
+      <c r="G32">
+        <v>0.004942194441238191</v>
+      </c>
+      <c r="H32">
+        <v>0.003813384213336145</v>
+      </c>
+      <c r="I32">
+        <v>-0.00187347301067826</v>
+      </c>
+      <c r="J32">
+        <v>0.001085134027404938</v>
+      </c>
+      <c r="K32">
+        <v>0.1195535481632461</v>
+      </c>
+      <c r="L32">
+        <v>-0.05887346111511554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1029455359538372</v>
+        <v>0.103750364827536</v>
       </c>
       <c r="C33">
-        <v>0.02983905540562384</v>
+        <v>-0.05585076854577153</v>
       </c>
       <c r="D33">
-        <v>-0.06003166414975379</v>
+        <v>-0.007407330164526107</v>
       </c>
       <c r="E33">
-        <v>0.01676765285769634</v>
+        <v>0.01957109765673499</v>
       </c>
       <c r="F33">
-        <v>0.002195888574552936</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.04399254009083581</v>
+      </c>
+      <c r="G33">
+        <v>0.04438891443697337</v>
+      </c>
+      <c r="H33">
+        <v>0.03894164041087272</v>
+      </c>
+      <c r="I33">
+        <v>0.06759629963811487</v>
+      </c>
+      <c r="J33">
+        <v>0.01250568018191812</v>
+      </c>
+      <c r="K33">
+        <v>0.0307270957503277</v>
+      </c>
+      <c r="L33">
+        <v>0.006186943548749946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.05963830199271083</v>
+        <v>0.06634174272591474</v>
       </c>
       <c r="C34">
-        <v>0.05068027812138671</v>
+        <v>-0.05015209516151124</v>
       </c>
       <c r="D34">
-        <v>-0.03679656044153898</v>
+        <v>-0.01846170490480077</v>
       </c>
       <c r="E34">
-        <v>0.0252612421516873</v>
+        <v>-0.01179878470810954</v>
       </c>
       <c r="F34">
-        <v>-0.03896094159895226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03449360549020097</v>
+      </c>
+      <c r="G34">
+        <v>0.06571141164286134</v>
+      </c>
+      <c r="H34">
+        <v>0.02378973803736832</v>
+      </c>
+      <c r="I34">
+        <v>0.06660972403475844</v>
+      </c>
+      <c r="J34">
+        <v>-0.03294702899425545</v>
+      </c>
+      <c r="K34">
+        <v>-0.03501566946657846</v>
+      </c>
+      <c r="L34">
+        <v>0.03141292230179141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04249308187284199</v>
+        <v>0.03457780914313907</v>
       </c>
       <c r="C35">
-        <v>0.01110352787167545</v>
+        <v>-0.02204228966802548</v>
       </c>
       <c r="D35">
-        <v>-0.02646170979201435</v>
+        <v>-0.005922844320702763</v>
       </c>
       <c r="E35">
-        <v>0.003956107222275768</v>
+        <v>0.006544799655405314</v>
       </c>
       <c r="F35">
-        <v>-0.01654448671350368</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.02144830230607473</v>
+      </c>
+      <c r="G35">
+        <v>-0.002913878969418715</v>
+      </c>
+      <c r="H35">
+        <v>0.02268923282238241</v>
+      </c>
+      <c r="I35">
+        <v>0.06811862862090491</v>
+      </c>
+      <c r="J35">
+        <v>-0.02334522653962892</v>
+      </c>
+      <c r="K35">
+        <v>0.01483167216222566</v>
+      </c>
+      <c r="L35">
+        <v>-0.02425980915248191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03770410518437349</v>
+        <v>0.03302301719710611</v>
       </c>
       <c r="C36">
-        <v>0.01221800819895491</v>
+        <v>-0.01709012077211606</v>
       </c>
       <c r="D36">
-        <v>-0.01586213049240209</v>
+        <v>0.007521642561886237</v>
       </c>
       <c r="E36">
-        <v>0.03290111537274715</v>
+        <v>-0.02047833783790657</v>
       </c>
       <c r="F36">
-        <v>-0.02714116739689259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02970031627217068</v>
+      </c>
+      <c r="G36">
+        <v>0.0349865049981327</v>
+      </c>
+      <c r="H36">
+        <v>0.009041365195208356</v>
+      </c>
+      <c r="I36">
+        <v>0.06906908604077233</v>
+      </c>
+      <c r="J36">
+        <v>0.005056031559940601</v>
+      </c>
+      <c r="K36">
+        <v>0.03315704662803905</v>
+      </c>
+      <c r="L36">
+        <v>-0.00145961579734255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.06551210091143762</v>
+        <v>0.04847002939198528</v>
       </c>
       <c r="C38">
-        <v>0.01914558807422639</v>
+        <v>-0.04501267902682052</v>
       </c>
       <c r="D38">
-        <v>0.01173563284592621</v>
+        <v>0.02812393671652852</v>
       </c>
       <c r="E38">
-        <v>-0.01516724911319038</v>
+        <v>-0.0174614378475088</v>
       </c>
       <c r="F38">
-        <v>-0.06334694284306261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.008371971104322416</v>
+      </c>
+      <c r="G38">
+        <v>-0.01534114560081105</v>
+      </c>
+      <c r="H38">
+        <v>0.01838938513520711</v>
+      </c>
+      <c r="I38">
+        <v>-0.126436697046342</v>
+      </c>
+      <c r="J38">
+        <v>-0.02569811612184008</v>
+      </c>
+      <c r="K38">
+        <v>0.09588023714141981</v>
+      </c>
+      <c r="L38">
+        <v>-0.02378769382515388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.09389003660793518</v>
+        <v>0.09587626811079195</v>
       </c>
       <c r="C39">
-        <v>0.04670235893730908</v>
+        <v>-0.059267479437701</v>
       </c>
       <c r="D39">
-        <v>-0.06370379181706573</v>
+        <v>-0.01805656339800646</v>
       </c>
       <c r="E39">
-        <v>0.0165472728444711</v>
+        <v>-0.01449600238420968</v>
       </c>
       <c r="F39">
-        <v>-0.02125977969156145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05184014191522335</v>
+      </c>
+      <c r="G39">
+        <v>0.06760010886444713</v>
+      </c>
+      <c r="H39">
+        <v>0.0068696604803097</v>
+      </c>
+      <c r="I39">
+        <v>0.09683537212771974</v>
+      </c>
+      <c r="J39">
+        <v>-0.154161129812332</v>
+      </c>
+      <c r="K39">
+        <v>-0.009865175250774566</v>
+      </c>
+      <c r="L39">
+        <v>-0.07146493029004757</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.08503139774065267</v>
+        <v>0.04679970581047905</v>
       </c>
       <c r="C40">
-        <v>0.02173951105612811</v>
+        <v>-0.05554729180526342</v>
       </c>
       <c r="D40">
-        <v>-0.04021851120585414</v>
+        <v>0.05991204891679926</v>
       </c>
       <c r="E40">
-        <v>0.0316183099255704</v>
+        <v>-0.004608719013160615</v>
       </c>
       <c r="F40">
-        <v>-0.1377896214678279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.04312182233717325</v>
+      </c>
+      <c r="G40">
+        <v>0.09641549095544519</v>
+      </c>
+      <c r="H40">
+        <v>-0.08975789585174242</v>
+      </c>
+      <c r="I40">
+        <v>0.08549632355455995</v>
+      </c>
+      <c r="J40">
+        <v>-0.2001426523009532</v>
+      </c>
+      <c r="K40">
+        <v>0.04457373023493404</v>
+      </c>
+      <c r="L40">
+        <v>-0.07620265589386929</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.06460027280385941</v>
+        <v>0.04668167978325556</v>
       </c>
       <c r="C41">
-        <v>0.03750927803259788</v>
+        <v>-0.03659675809710693</v>
       </c>
       <c r="D41">
-        <v>-0.03169199940227372</v>
+        <v>-0.01394843886620174</v>
       </c>
       <c r="E41">
-        <v>-0.002238232512665569</v>
+        <v>0.005135360319513647</v>
       </c>
       <c r="F41">
-        <v>-0.004000787770461349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01521895808397216</v>
+      </c>
+      <c r="G41">
+        <v>0.03056915778107451</v>
+      </c>
+      <c r="H41">
+        <v>0.03406403090648599</v>
+      </c>
+      <c r="I41">
+        <v>0.006166141161504744</v>
+      </c>
+      <c r="J41">
+        <v>-0.02549874625885366</v>
+      </c>
+      <c r="K41">
+        <v>0.04219356424493168</v>
+      </c>
+      <c r="L41">
+        <v>-0.01828361146930681</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.06463944188509636</v>
+        <v>0.05897097270376061</v>
       </c>
       <c r="C43">
-        <v>0.02090808086558075</v>
+        <v>-0.0438393610255137</v>
       </c>
       <c r="D43">
-        <v>-0.0239010992961517</v>
+        <v>-0.004001719140655344</v>
       </c>
       <c r="E43">
-        <v>0.02045773588980604</v>
+        <v>-0.01936637750761309</v>
       </c>
       <c r="F43">
-        <v>-0.00178359373449697</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01337688738685102</v>
+      </c>
+      <c r="G43">
+        <v>0.0209818127524499</v>
+      </c>
+      <c r="H43">
+        <v>0.05436038934018081</v>
+      </c>
+      <c r="I43">
+        <v>0.01472569276080937</v>
+      </c>
+      <c r="J43">
+        <v>-0.0138211629088874</v>
+      </c>
+      <c r="K43">
+        <v>0.02044441755257962</v>
+      </c>
+      <c r="L43">
+        <v>0.008814218977859554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.07979358616103363</v>
+        <v>0.08648996950448651</v>
       </c>
       <c r="C44">
-        <v>0.03621140637130479</v>
+        <v>-0.05168597922410751</v>
       </c>
       <c r="D44">
-        <v>0.006673729140870976</v>
+        <v>0.02450352236392395</v>
       </c>
       <c r="E44">
-        <v>0.08640752655600267</v>
+        <v>-0.1048097377629565</v>
       </c>
       <c r="F44">
-        <v>-0.1242243543945555</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.07273383965690862</v>
+      </c>
+      <c r="G44">
+        <v>0.09060333607212814</v>
+      </c>
+      <c r="H44">
+        <v>0.02262025838539217</v>
+      </c>
+      <c r="I44">
+        <v>0.1239094867924854</v>
+      </c>
+      <c r="J44">
+        <v>-0.081975204243075</v>
+      </c>
+      <c r="K44">
+        <v>0.02151325031815603</v>
+      </c>
+      <c r="L44">
+        <v>0.02280091891568871</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.02952819076653511</v>
+        <v>0.04402905031753501</v>
       </c>
       <c r="C46">
-        <v>0.02689900687537231</v>
+        <v>-0.03415852383487653</v>
       </c>
       <c r="D46">
-        <v>-0.01972682881958693</v>
+        <v>-0.006525202963721344</v>
       </c>
       <c r="E46">
-        <v>0.01718575917350136</v>
+        <v>-0.0236967577500634</v>
       </c>
       <c r="F46">
-        <v>-0.03557792096017002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04445376456828459</v>
+      </c>
+      <c r="G46">
+        <v>0.01367795420564323</v>
+      </c>
+      <c r="H46">
+        <v>0.01824969696964018</v>
+      </c>
+      <c r="I46">
+        <v>0.03975564265113772</v>
+      </c>
+      <c r="J46">
+        <v>0.02318176680200757</v>
+      </c>
+      <c r="K46">
+        <v>0.06417204498515959</v>
+      </c>
+      <c r="L46">
+        <v>0.03847855067479608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.03873340684626073</v>
+        <v>0.04678718514115504</v>
       </c>
       <c r="C47">
-        <v>-0.006666802848782243</v>
+        <v>-0.01939763968398868</v>
       </c>
       <c r="D47">
-        <v>-0.007619372064253714</v>
+        <v>0.01511769026222559</v>
       </c>
       <c r="E47">
-        <v>0.01209859611061791</v>
+        <v>-0.003024879751942818</v>
       </c>
       <c r="F47">
-        <v>-0.0809173933363231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.04345218435014248</v>
+      </c>
+      <c r="G47">
+        <v>0.006719436863198774</v>
+      </c>
+      <c r="H47">
+        <v>0.03392148234523125</v>
+      </c>
+      <c r="I47">
+        <v>0.03250788529502279</v>
+      </c>
+      <c r="J47">
+        <v>0.03148853437205842</v>
+      </c>
+      <c r="K47">
+        <v>-0.00934515321717313</v>
+      </c>
+      <c r="L47">
+        <v>-0.007344665153549998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.0481199941062242</v>
+        <v>0.04525113301460115</v>
       </c>
       <c r="C48">
-        <v>0.01294072563552054</v>
+        <v>-0.01578092192239462</v>
       </c>
       <c r="D48">
-        <v>-0.02835738000464828</v>
+        <v>0.01613660156010707</v>
       </c>
       <c r="E48">
-        <v>0.02228390948338913</v>
+        <v>-0.006962280453831972</v>
       </c>
       <c r="F48">
-        <v>-0.05397932758817768</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.04306863256810448</v>
+      </c>
+      <c r="G48">
+        <v>0.01952809595069166</v>
+      </c>
+      <c r="H48">
+        <v>-0.00350281623109911</v>
+      </c>
+      <c r="I48">
+        <v>0.06080531606255012</v>
+      </c>
+      <c r="J48">
+        <v>0.0116701574687576</v>
+      </c>
+      <c r="K48">
+        <v>0.02934967560024762</v>
+      </c>
+      <c r="L48">
+        <v>-0.0246874881839644</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.1466673086797677</v>
+        <v>0.2065957851661252</v>
       </c>
       <c r="C49">
-        <v>0.01801771295692721</v>
+        <v>-0.02686917535218785</v>
       </c>
       <c r="D49">
-        <v>-0.105864661192531</v>
+        <v>-0.1863087558288166</v>
       </c>
       <c r="E49">
-        <v>0.03485346204696053</v>
+        <v>0.02246678255475203</v>
       </c>
       <c r="F49">
-        <v>0.1202799572838268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.02267049620577924</v>
+      </c>
+      <c r="G49">
+        <v>-0.1799651199525809</v>
+      </c>
+      <c r="H49">
+        <v>-0.1713337408671381</v>
+      </c>
+      <c r="I49">
+        <v>-0.1224108905899076</v>
+      </c>
+      <c r="J49">
+        <v>-0.1413320054195828</v>
+      </c>
+      <c r="K49">
+        <v>-0.1322389131384556</v>
+      </c>
+      <c r="L49">
+        <v>0.1339348492088688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.06342796081780665</v>
+        <v>0.0523158318506338</v>
       </c>
       <c r="C50">
-        <v>0.01465781581206619</v>
+        <v>-0.03980940532874681</v>
       </c>
       <c r="D50">
-        <v>-0.04126263240265556</v>
+        <v>-0.004118847367547849</v>
       </c>
       <c r="E50">
-        <v>0.002684694042074415</v>
+        <v>0.01339031984275159</v>
       </c>
       <c r="F50">
-        <v>-0.02465308524404429</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03725352012337477</v>
+      </c>
+      <c r="G50">
+        <v>0.02551574525719106</v>
+      </c>
+      <c r="H50">
+        <v>0.05214806359526523</v>
+      </c>
+      <c r="I50">
+        <v>0.03831848351711639</v>
+      </c>
+      <c r="J50">
+        <v>0.04194078247342601</v>
+      </c>
+      <c r="K50">
+        <v>0.02686864987961318</v>
+      </c>
+      <c r="L50">
+        <v>-0.02857241963703554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.04052098872031117</v>
+        <v>0.04085521093352609</v>
       </c>
       <c r="C51">
-        <v>0.006536579211051442</v>
+        <v>-0.008309569745048772</v>
       </c>
       <c r="D51">
-        <v>0.004932923922648988</v>
+        <v>0.006319569698385337</v>
       </c>
       <c r="E51">
-        <v>0.002113484493274664</v>
+        <v>-0.02189910056907251</v>
       </c>
       <c r="F51">
-        <v>-0.01535403739570329</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.02564553937935933</v>
+      </c>
+      <c r="G51">
+        <v>-0.01376183590972986</v>
+      </c>
+      <c r="H51">
+        <v>-0.01065778704771852</v>
+      </c>
+      <c r="I51">
+        <v>-0.007018043752822655</v>
+      </c>
+      <c r="J51">
+        <v>-0.03769367737940913</v>
+      </c>
+      <c r="K51">
+        <v>-0.06158522560861397</v>
+      </c>
+      <c r="L51">
+        <v>0.02867379467487962</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1478542236766519</v>
+        <v>0.1509604567664561</v>
       </c>
       <c r="C53">
-        <v>-0.03848789314801636</v>
+        <v>-0.02525895395440998</v>
       </c>
       <c r="D53">
-        <v>-0.07349929617554016</v>
+        <v>-0.07303623344942231</v>
       </c>
       <c r="E53">
-        <v>0.007922583928349955</v>
+        <v>0.02409990176958065</v>
       </c>
       <c r="F53">
-        <v>0.07328467773350696</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0002144634683326744</v>
+      </c>
+      <c r="G53">
+        <v>-0.0103600884826183</v>
+      </c>
+      <c r="H53">
+        <v>0.2407515619048806</v>
+      </c>
+      <c r="I53">
+        <v>-0.0664979006797943</v>
+      </c>
+      <c r="J53">
+        <v>0.04109753027338058</v>
+      </c>
+      <c r="K53">
+        <v>-0.04758388474861707</v>
+      </c>
+      <c r="L53">
+        <v>0.03037620813508979</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.0622803218784909</v>
+        <v>0.06024636311012122</v>
       </c>
       <c r="C54">
-        <v>0.0233586015885067</v>
+        <v>-0.02186976796450964</v>
       </c>
       <c r="D54">
-        <v>-0.0003240284446109139</v>
+        <v>0.02202587223764589</v>
       </c>
       <c r="E54">
-        <v>0.04029927514905169</v>
+        <v>-0.0336780611335313</v>
       </c>
       <c r="F54">
-        <v>-0.06020121932216209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.05102642084622892</v>
+      </c>
+      <c r="G54">
+        <v>0.07913473507025377</v>
+      </c>
+      <c r="H54">
+        <v>0.008317489417234014</v>
+      </c>
+      <c r="I54">
+        <v>0.1122158108302852</v>
+      </c>
+      <c r="J54">
+        <v>0.02761712783367527</v>
+      </c>
+      <c r="K54">
+        <v>0.05918650309363056</v>
+      </c>
+      <c r="L54">
+        <v>-0.0143301466093977</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09056073848136767</v>
+        <v>0.09216916916910918</v>
       </c>
       <c r="C55">
-        <v>-0.01431871158665099</v>
+        <v>-0.03040406815404725</v>
       </c>
       <c r="D55">
-        <v>-0.05396277202217675</v>
+        <v>-0.05138345001397319</v>
       </c>
       <c r="E55">
-        <v>0.0245652454613036</v>
+        <v>-0.003744878066107224</v>
       </c>
       <c r="F55">
-        <v>0.001905832992370613</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01210987036698111</v>
+      </c>
+      <c r="G55">
+        <v>0.03724405549584078</v>
+      </c>
+      <c r="H55">
+        <v>0.1616502975914411</v>
+      </c>
+      <c r="I55">
+        <v>0.0007695539171728088</v>
+      </c>
+      <c r="J55">
+        <v>0.02510564047076062</v>
+      </c>
+      <c r="K55">
+        <v>-0.03348449296753237</v>
+      </c>
+      <c r="L55">
+        <v>0.06028570581740242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1465139049387427</v>
+        <v>0.1463294593568692</v>
       </c>
       <c r="C56">
-        <v>-0.0465601651270169</v>
+        <v>-0.04175882844128277</v>
       </c>
       <c r="D56">
-        <v>-0.08166197654283525</v>
+        <v>-0.07233192536769645</v>
       </c>
       <c r="E56">
-        <v>0.0496950110678803</v>
+        <v>0.0005449205301979308</v>
       </c>
       <c r="F56">
-        <v>0.07674838895465476</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0117801473832288</v>
+      </c>
+      <c r="G56">
+        <v>0.01268489732088109</v>
+      </c>
+      <c r="H56">
+        <v>0.2442531870921895</v>
+      </c>
+      <c r="I56">
+        <v>-0.08284237671624103</v>
+      </c>
+      <c r="J56">
+        <v>0.0255947759689162</v>
+      </c>
+      <c r="K56">
+        <v>-0.02854392077733794</v>
+      </c>
+      <c r="L56">
+        <v>-0.01366656809680711</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.1053139487496611</v>
+        <v>0.06851400712743318</v>
       </c>
       <c r="C58">
-        <v>0.07378334111224283</v>
+        <v>-0.04597026569411135</v>
       </c>
       <c r="D58">
-        <v>0.1730790539633335</v>
+        <v>0.1784185834055385</v>
       </c>
       <c r="E58">
-        <v>0.09685651916168009</v>
+        <v>-0.09314100491934874</v>
       </c>
       <c r="F58">
-        <v>-0.2625816411683063</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.07890686963151734</v>
+      </c>
+      <c r="G58">
+        <v>-0.1114840146083089</v>
+      </c>
+      <c r="H58">
+        <v>-0.159543543589024</v>
+      </c>
+      <c r="I58">
+        <v>0.5166978893704985</v>
+      </c>
+      <c r="J58">
+        <v>-0.01422933422054092</v>
+      </c>
+      <c r="K58">
+        <v>-0.3317534245393961</v>
+      </c>
+      <c r="L58">
+        <v>-0.2060099758332428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1692898863850873</v>
+        <v>0.1983644822426977</v>
       </c>
       <c r="C59">
-        <v>-0.4159905504737305</v>
+        <v>0.3258266161298001</v>
       </c>
       <c r="D59">
-        <v>0.1095271961989471</v>
+        <v>0.03176050631372246</v>
       </c>
       <c r="E59">
-        <v>0.08677816365284753</v>
+        <v>-0.02906755300968444</v>
       </c>
       <c r="F59">
-        <v>-0.04358278036927635</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.04082211486714642</v>
+      </c>
+      <c r="G59">
+        <v>0.03161399241157295</v>
+      </c>
+      <c r="H59">
+        <v>0.05776477837297092</v>
+      </c>
+      <c r="I59">
+        <v>-0.04969385541786935</v>
+      </c>
+      <c r="J59">
+        <v>-0.0482618483905192</v>
+      </c>
+      <c r="K59">
+        <v>-0.001629016290743396</v>
+      </c>
+      <c r="L59">
+        <v>0.005600700435694992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.222111069216414</v>
+        <v>0.242578302133153</v>
       </c>
       <c r="C60">
-        <v>-0.01904712218711977</v>
+        <v>-0.06457208139083485</v>
       </c>
       <c r="D60">
-        <v>-0.1055842626226805</v>
+        <v>-0.1436101767954931</v>
       </c>
       <c r="E60">
-        <v>0.06977240590844233</v>
+        <v>-0.01015016493369962</v>
       </c>
       <c r="F60">
-        <v>0.03273833483108322</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.01591648185515383</v>
+      </c>
+      <c r="G60">
+        <v>-0.04485326052855888</v>
+      </c>
+      <c r="H60">
+        <v>-0.0804561650936045</v>
+      </c>
+      <c r="I60">
+        <v>-0.1154697786967364</v>
+      </c>
+      <c r="J60">
+        <v>0.08980156326961193</v>
+      </c>
+      <c r="K60">
+        <v>-0.1418672497808972</v>
+      </c>
+      <c r="L60">
+        <v>0.0225997541042138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.07797549370788603</v>
+        <v>0.08539367138013447</v>
       </c>
       <c r="C61">
-        <v>0.02453786178356323</v>
+        <v>-0.0441694337242586</v>
       </c>
       <c r="D61">
-        <v>-0.04412684139673632</v>
+        <v>-0.02201904677468332</v>
       </c>
       <c r="E61">
-        <v>0.01256619231897236</v>
+        <v>-0.01997967901736361</v>
       </c>
       <c r="F61">
-        <v>-0.001007915794214798</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.0317434622648126</v>
+      </c>
+      <c r="G61">
+        <v>0.07687657138510592</v>
+      </c>
+      <c r="H61">
+        <v>0.05231919674822216</v>
+      </c>
+      <c r="I61">
+        <v>0.04819072089777378</v>
+      </c>
+      <c r="J61">
+        <v>-0.08184694995742323</v>
+      </c>
+      <c r="K61">
+        <v>0.001585047179366117</v>
+      </c>
+      <c r="L61">
+        <v>-0.0163869961315624</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1522763303743442</v>
+        <v>0.1475782126609524</v>
       </c>
       <c r="C62">
-        <v>-0.01428201874960458</v>
+        <v>-0.05030800952493519</v>
       </c>
       <c r="D62">
-        <v>-0.05901861855081002</v>
+        <v>-0.06608759277159947</v>
       </c>
       <c r="E62">
-        <v>-0.007113618601321547</v>
+        <v>0.04150231835869087</v>
       </c>
       <c r="F62">
-        <v>0.1144555579097297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.01698065407274185</v>
+      </c>
+      <c r="G62">
+        <v>0.03016664360425639</v>
+      </c>
+      <c r="H62">
+        <v>0.2145848753995418</v>
+      </c>
+      <c r="I62">
+        <v>-0.05894732986795192</v>
+      </c>
+      <c r="J62">
+        <v>0.07406952861371144</v>
+      </c>
+      <c r="K62">
+        <v>-0.0126252098400968</v>
+      </c>
+      <c r="L62">
+        <v>0.05449386732601726</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.06142879515514084</v>
+        <v>0.051775161518723</v>
       </c>
       <c r="C63">
-        <v>0.03642652100035552</v>
+        <v>-0.02960614547713105</v>
       </c>
       <c r="D63">
-        <v>-0.02911591992123607</v>
+        <v>0.00265778265357987</v>
       </c>
       <c r="E63">
-        <v>0.01477906783390371</v>
+        <v>0.004714702980285482</v>
       </c>
       <c r="F63">
-        <v>-0.004574713467923242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02865574570827823</v>
+      </c>
+      <c r="G63">
+        <v>0.05217036523618936</v>
+      </c>
+      <c r="H63">
+        <v>0.01229789289024609</v>
+      </c>
+      <c r="I63">
+        <v>0.05199686572838248</v>
+      </c>
+      <c r="J63">
+        <v>0.03644243059163205</v>
+      </c>
+      <c r="K63">
+        <v>0.02711372646440721</v>
+      </c>
+      <c r="L63">
+        <v>-0.01391663505980474</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.09754911629411199</v>
+        <v>0.1021776070144345</v>
       </c>
       <c r="C64">
-        <v>-0.0121753678813293</v>
+        <v>-0.02485323041626846</v>
       </c>
       <c r="D64">
-        <v>-0.06324964421623136</v>
+        <v>-0.03960282090932419</v>
       </c>
       <c r="E64">
-        <v>0.03803792434057045</v>
+        <v>-0.03000384213259398</v>
       </c>
       <c r="F64">
-        <v>-0.05193610396537419</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.07704658417823405</v>
+      </c>
+      <c r="G64">
+        <v>0.05429443339487176</v>
+      </c>
+      <c r="H64">
+        <v>-0.01732175868380323</v>
+      </c>
+      <c r="I64">
+        <v>0.02764780239433948</v>
+      </c>
+      <c r="J64">
+        <v>-0.03949204723010089</v>
+      </c>
+      <c r="K64">
+        <v>0.01931947528189973</v>
+      </c>
+      <c r="L64">
+        <v>-0.04492472438026728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1126925602663771</v>
+        <v>0.127128875653018</v>
       </c>
       <c r="C65">
-        <v>0.01613638889162596</v>
+        <v>-0.02105809542011207</v>
       </c>
       <c r="D65">
-        <v>-0.04186819189134666</v>
+        <v>-0.05700972383231168</v>
       </c>
       <c r="E65">
-        <v>0.04528725550944442</v>
+        <v>0.01179312591634611</v>
       </c>
       <c r="F65">
-        <v>-0.09120493113754638</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.05509445882115811</v>
+      </c>
+      <c r="G65">
+        <v>0.07266584106389988</v>
+      </c>
+      <c r="H65">
+        <v>-0.1906689420686043</v>
+      </c>
+      <c r="I65">
+        <v>0.1385326239940665</v>
+      </c>
+      <c r="J65">
+        <v>0.6592690245036613</v>
+      </c>
+      <c r="K65">
+        <v>-0.09176892976852762</v>
+      </c>
+      <c r="L65">
+        <v>0.05090157832709353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.152843303314562</v>
+        <v>0.1352159136249281</v>
       </c>
       <c r="C66">
-        <v>0.08374557880220272</v>
+        <v>-0.1090205257384254</v>
       </c>
       <c r="D66">
-        <v>-0.09252887241552527</v>
+        <v>-0.02697425590660289</v>
       </c>
       <c r="E66">
-        <v>0.02943529607512623</v>
+        <v>-0.004225195947407752</v>
       </c>
       <c r="F66">
-        <v>0.03339222691506749</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.04296790560960756</v>
+      </c>
+      <c r="G66">
+        <v>0.1015330449317919</v>
+      </c>
+      <c r="H66">
+        <v>0.01714964320724342</v>
+      </c>
+      <c r="I66">
+        <v>0.08444875687451771</v>
+      </c>
+      <c r="J66">
+        <v>-0.2405092341250626</v>
+      </c>
+      <c r="K66">
+        <v>0.050715531264954</v>
+      </c>
+      <c r="L66">
+        <v>-0.05797600762291744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09724972117388685</v>
+        <v>0.09613097859552212</v>
       </c>
       <c r="C67">
-        <v>0.02955892722226867</v>
+        <v>-0.05595551664158686</v>
       </c>
       <c r="D67">
-        <v>0.006632711400120625</v>
+        <v>0.008649466767773367</v>
       </c>
       <c r="E67">
-        <v>0.008868768786447922</v>
+        <v>-0.04409337496997646</v>
       </c>
       <c r="F67">
-        <v>-0.01427946019232953</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01795487483337282</v>
+      </c>
+      <c r="G67">
+        <v>0.008064882373684433</v>
+      </c>
+      <c r="H67">
+        <v>0.007375833988026482</v>
+      </c>
+      <c r="I67">
+        <v>-0.1402495232104841</v>
+      </c>
+      <c r="J67">
+        <v>-0.06025397992881914</v>
+      </c>
+      <c r="K67">
+        <v>0.07562296887463489</v>
+      </c>
+      <c r="L67">
+        <v>0.0198677603782227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.06096308017213369</v>
+        <v>0.09736668640412532</v>
       </c>
       <c r="C68">
-        <v>-0.251885104997932</v>
+        <v>0.2745103478500484</v>
       </c>
       <c r="D68">
-        <v>0.07618132854441513</v>
+        <v>0.04724342783188585</v>
       </c>
       <c r="E68">
-        <v>0.03609987810719287</v>
+        <v>-0.02250936354785537</v>
       </c>
       <c r="F68">
-        <v>-0.0468567444777967</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01679331603525886</v>
+      </c>
+      <c r="G68">
+        <v>-0.006619432928123603</v>
+      </c>
+      <c r="H68">
+        <v>0.02685315404298556</v>
+      </c>
+      <c r="I68">
+        <v>0.0265594753312496</v>
+      </c>
+      <c r="J68">
+        <v>0.06331877893738592</v>
+      </c>
+      <c r="K68">
+        <v>0.003762171117964143</v>
+      </c>
+      <c r="L68">
+        <v>-0.03432915714373622</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.06649196151713885</v>
+        <v>0.05505044014843159</v>
       </c>
       <c r="C69">
-        <v>0.01741072523338958</v>
+        <v>-0.02602598280998155</v>
       </c>
       <c r="D69">
-        <v>-0.003480950202125626</v>
+        <v>0.01449705733299458</v>
       </c>
       <c r="E69">
-        <v>0.01676229448418754</v>
+        <v>0.003766165442564816</v>
       </c>
       <c r="F69">
-        <v>-0.009424004332537352</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.003671708795187733</v>
+      </c>
+      <c r="G69">
+        <v>0.02877808440551095</v>
+      </c>
+      <c r="H69">
+        <v>0.04234605810935613</v>
+      </c>
+      <c r="I69">
+        <v>0.01137223174509089</v>
+      </c>
+      <c r="J69">
+        <v>-0.005838423318576951</v>
+      </c>
+      <c r="K69">
+        <v>-0.01230763582848697</v>
+      </c>
+      <c r="L69">
+        <v>-0.01136144698967935</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.01880388879277385</v>
+        <v>0.04128575573794701</v>
       </c>
       <c r="C70">
-        <v>-0.008124219320327326</v>
+        <v>-0.01879454046061759</v>
       </c>
       <c r="D70">
-        <v>0.0003442963572352135</v>
+        <v>-0.02806967016363279</v>
       </c>
       <c r="E70">
-        <v>-0.01307906009538038</v>
+        <v>0.007908521335972172</v>
       </c>
       <c r="F70">
-        <v>-0.002187582659941289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-0.04319401382704661</v>
+      </c>
+      <c r="G70">
+        <v>0.01318432088922785</v>
+      </c>
+      <c r="H70">
+        <v>-0.01613913280474874</v>
+      </c>
+      <c r="I70">
+        <v>-0.03320881016256711</v>
+      </c>
+      <c r="J70">
+        <v>-0.02169256912662739</v>
+      </c>
+      <c r="K70">
+        <v>0.1374958806610588</v>
+      </c>
+      <c r="L70">
+        <v>-0.02772437786435122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.0627071903727708</v>
+        <v>0.1097427904114161</v>
       </c>
       <c r="C71">
-        <v>-0.2672817229867088</v>
+        <v>0.2878231558710584</v>
       </c>
       <c r="D71">
-        <v>0.07555973927569007</v>
+        <v>0.03113691481095563</v>
       </c>
       <c r="E71">
-        <v>0.06913802754147573</v>
+        <v>-0.0413282725685451</v>
       </c>
       <c r="F71">
-        <v>-0.03094997906724514</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02031315857065658</v>
+      </c>
+      <c r="G71">
+        <v>0.003348465084422693</v>
+      </c>
+      <c r="H71">
+        <v>0.01389518119030316</v>
+      </c>
+      <c r="I71">
+        <v>0.01597887283281835</v>
+      </c>
+      <c r="J71">
+        <v>0.0166544312771656</v>
+      </c>
+      <c r="K71">
+        <v>0.00701862025302274</v>
+      </c>
+      <c r="L71">
+        <v>0.009524251642837274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1434454374353799</v>
+        <v>0.1343916543980323</v>
       </c>
       <c r="C72">
-        <v>-0.05053916706854032</v>
+        <v>-0.009653498147990906</v>
       </c>
       <c r="D72">
-        <v>-0.03662632800041402</v>
+        <v>0.01728129506558506</v>
       </c>
       <c r="E72">
-        <v>-0.2406053637542309</v>
+        <v>0.1759234985917849</v>
       </c>
       <c r="F72">
-        <v>-0.002871197007838876</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.01041191675354746</v>
+      </c>
+      <c r="G72">
+        <v>0.1264157454513028</v>
+      </c>
+      <c r="H72">
+        <v>0.0148375617607399</v>
+      </c>
+      <c r="I72">
+        <v>-0.03884142487507204</v>
+      </c>
+      <c r="J72">
+        <v>0.1005171159858822</v>
+      </c>
+      <c r="K72">
+        <v>-0.1059361675298059</v>
+      </c>
+      <c r="L72">
+        <v>0.110530284174755</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2496223669081064</v>
+        <v>0.2404665131432423</v>
       </c>
       <c r="C73">
-        <v>0.05562940638894616</v>
+        <v>-0.1123141824650029</v>
       </c>
       <c r="D73">
-        <v>-0.1512216735118269</v>
+        <v>-0.2398878716456256</v>
       </c>
       <c r="E73">
-        <v>0.105941761976903</v>
+        <v>-0.03943801725831352</v>
       </c>
       <c r="F73">
-        <v>0.1208552260398458</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.14331590647655</v>
+      </c>
+      <c r="G73">
+        <v>-0.2929023111061255</v>
+      </c>
+      <c r="H73">
+        <v>-0.2698539539452748</v>
+      </c>
+      <c r="I73">
+        <v>-0.1154624755356847</v>
+      </c>
+      <c r="J73">
+        <v>-0.2078081387808658</v>
+      </c>
+      <c r="K73">
+        <v>-0.4776817667971366</v>
+      </c>
+      <c r="L73">
+        <v>0.02817625281225407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.08258034287153236</v>
+        <v>0.08895534728001403</v>
       </c>
       <c r="C74">
-        <v>-0.02321988712625207</v>
+        <v>-0.04199119011039255</v>
       </c>
       <c r="D74">
-        <v>-0.05607997593651071</v>
+        <v>-0.04630036186229498</v>
       </c>
       <c r="E74">
-        <v>0.009080031967391938</v>
+        <v>0.01684696698586116</v>
       </c>
       <c r="F74">
-        <v>-0.006342679927633489</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.02294803926392012</v>
+      </c>
+      <c r="G74">
+        <v>-0.0135497263645013</v>
+      </c>
+      <c r="H74">
+        <v>0.1436589022223533</v>
+      </c>
+      <c r="I74">
+        <v>-0.003092215470140288</v>
+      </c>
+      <c r="J74">
+        <v>-0.0116528666685029</v>
+      </c>
+      <c r="K74">
+        <v>-0.06284298300368481</v>
+      </c>
+      <c r="L74">
+        <v>0.009206285183702251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.1179254789574173</v>
+        <v>0.0996381949279157</v>
       </c>
       <c r="C75">
-        <v>-0.00344666243479928</v>
+        <v>-0.03941756642615958</v>
       </c>
       <c r="D75">
-        <v>0.0005581294298525673</v>
+        <v>0.01039495129218718</v>
       </c>
       <c r="E75">
-        <v>0.02199856779069351</v>
+        <v>0.005328945912266263</v>
       </c>
       <c r="F75">
-        <v>0.03346445827875746</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03900792440790014</v>
+      </c>
+      <c r="G75">
+        <v>-0.003356496032391403</v>
+      </c>
+      <c r="H75">
+        <v>0.136196015747611</v>
+      </c>
+      <c r="I75">
+        <v>-0.02739370513685066</v>
+      </c>
+      <c r="J75">
+        <v>0.04470492683236663</v>
+      </c>
+      <c r="K75">
+        <v>-0.02675337031241874</v>
+      </c>
+      <c r="L75">
+        <v>-0.0097543605327216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1315779963900994</v>
+        <v>0.1158001712391634</v>
       </c>
       <c r="C76">
-        <v>-0.01393990753764992</v>
+        <v>-0.05635374135897789</v>
       </c>
       <c r="D76">
-        <v>-0.06594018787115173</v>
+        <v>-0.05673257836750772</v>
       </c>
       <c r="E76">
-        <v>0.01734245793688213</v>
+        <v>0.001255469686731475</v>
       </c>
       <c r="F76">
-        <v>0.02499188004004714</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01046915885306106</v>
+      </c>
+      <c r="G76">
+        <v>-0.003997214299325857</v>
+      </c>
+      <c r="H76">
+        <v>0.2349221117182308</v>
+      </c>
+      <c r="I76">
+        <v>-0.05246631091905761</v>
+      </c>
+      <c r="J76">
+        <v>0.0424881873812608</v>
+      </c>
+      <c r="K76">
+        <v>-0.03901957814596834</v>
+      </c>
+      <c r="L76">
+        <v>-0.005794443763472723</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.1269041269047933</v>
+        <v>0.08808026232384213</v>
       </c>
       <c r="C77">
-        <v>0.06511193914980744</v>
+        <v>-0.03420125562224342</v>
       </c>
       <c r="D77">
-        <v>0.1001273691315428</v>
+        <v>0.1450559507711814</v>
       </c>
       <c r="E77">
-        <v>0.005764681386264084</v>
+        <v>-0.1195846751399782</v>
       </c>
       <c r="F77">
-        <v>-0.2361001798074966</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.05387370981882557</v>
+      </c>
+      <c r="G77">
+        <v>0.6523413555037976</v>
+      </c>
+      <c r="H77">
+        <v>-0.3117395918065433</v>
+      </c>
+      <c r="I77">
+        <v>-0.4468681116293359</v>
+      </c>
+      <c r="J77">
+        <v>-0.05560626773198837</v>
+      </c>
+      <c r="K77">
+        <v>-0.09812927481976569</v>
+      </c>
+      <c r="L77">
+        <v>-0.08501633069044855</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.1240371547662024</v>
+        <v>0.1608265030150749</v>
       </c>
       <c r="C78">
-        <v>0.06886709246122644</v>
+        <v>-0.08340806411165748</v>
       </c>
       <c r="D78">
-        <v>-0.0591514517875202</v>
+        <v>0.03229866983021747</v>
       </c>
       <c r="E78">
-        <v>0.02494198476690291</v>
+        <v>-0.08617073298908243</v>
       </c>
       <c r="F78">
-        <v>-0.09607984493629143</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1620705314708897</v>
+      </c>
+      <c r="G78">
+        <v>0.009732476361279123</v>
+      </c>
+      <c r="H78">
+        <v>-0.1124130264186756</v>
+      </c>
+      <c r="I78">
+        <v>0.07511880377330435</v>
+      </c>
+      <c r="J78">
+        <v>-0.03623172817208258</v>
+      </c>
+      <c r="K78">
+        <v>0.1012593883944475</v>
+      </c>
+      <c r="L78">
+        <v>0.4819134089533818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1389029474475877</v>
+        <v>0.1370552665057744</v>
       </c>
       <c r="C79">
-        <v>0.003063080127911592</v>
+        <v>-0.05193242785477631</v>
       </c>
       <c r="D79">
-        <v>-0.06649774321017055</v>
+        <v>-0.04684107106653935</v>
       </c>
       <c r="E79">
-        <v>0.007796246153561353</v>
+        <v>0.006545694598067755</v>
       </c>
       <c r="F79">
-        <v>0.07839872887923167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.01166829823571074</v>
+      </c>
+      <c r="G79">
+        <v>0.03532862460269849</v>
+      </c>
+      <c r="H79">
+        <v>0.186270077195169</v>
+      </c>
+      <c r="I79">
+        <v>-0.06649325900389226</v>
+      </c>
+      <c r="J79">
+        <v>0.05971372656313161</v>
+      </c>
+      <c r="K79">
+        <v>-0.02579851730974244</v>
+      </c>
+      <c r="L79">
+        <v>0.02180350106427304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.0389590660312687</v>
+        <v>0.04578496657417291</v>
       </c>
       <c r="C80">
-        <v>0.02121685735815768</v>
+        <v>-0.0162476919787474</v>
       </c>
       <c r="D80">
-        <v>-0.02424623780760304</v>
+        <v>-0.05661463893405511</v>
       </c>
       <c r="E80">
-        <v>0.005111801320787314</v>
+        <v>0.01201995073418554</v>
       </c>
       <c r="F80">
-        <v>-0.01826811745846614</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01428215403368812</v>
+      </c>
+      <c r="G80">
+        <v>0.00713211868640752</v>
+      </c>
+      <c r="H80">
+        <v>-0.02232163133512367</v>
+      </c>
+      <c r="I80">
+        <v>0.07539737157926844</v>
+      </c>
+      <c r="J80">
+        <v>-0.02752324028248474</v>
+      </c>
+      <c r="K80">
+        <v>0.02589338276088277</v>
+      </c>
+      <c r="L80">
+        <v>0.01849670692826125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1353045059601719</v>
+        <v>0.1320638065561881</v>
       </c>
       <c r="C81">
-        <v>0.006766722852414105</v>
+        <v>-0.04003123972367281</v>
       </c>
       <c r="D81">
-        <v>-0.06863448323000632</v>
+        <v>-0.03845824138079668</v>
       </c>
       <c r="E81">
-        <v>0.03105500587563222</v>
+        <v>0.004332770204158795</v>
       </c>
       <c r="F81">
-        <v>0.04340863558181775</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01788058174643309</v>
+      </c>
+      <c r="G81">
+        <v>0.02662751311090469</v>
+      </c>
+      <c r="H81">
+        <v>0.1675705265448955</v>
+      </c>
+      <c r="I81">
+        <v>-0.01519665795384645</v>
+      </c>
+      <c r="J81">
+        <v>-0.02454114229639223</v>
+      </c>
+      <c r="K81">
+        <v>-0.01505515978225792</v>
+      </c>
+      <c r="L81">
+        <v>-0.07265256122386227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1146754234617731</v>
+        <v>0.1190164702614745</v>
       </c>
       <c r="C82">
-        <v>0.01649004622609159</v>
+        <v>-0.04211005036408182</v>
       </c>
       <c r="D82">
-        <v>-0.03649245965044044</v>
+        <v>-0.0423313424796477</v>
       </c>
       <c r="E82">
-        <v>0.03315446357825578</v>
+        <v>0.01382935579672901</v>
       </c>
       <c r="F82">
-        <v>0.09151361865859958</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01466162721631003</v>
+      </c>
+      <c r="G82">
+        <v>-0.004992369032319195</v>
+      </c>
+      <c r="H82">
+        <v>0.2700605801496386</v>
+      </c>
+      <c r="I82">
+        <v>-0.04303406181494757</v>
+      </c>
+      <c r="J82">
+        <v>-0.02679775797107344</v>
+      </c>
+      <c r="K82">
+        <v>0.01554135183159571</v>
+      </c>
+      <c r="L82">
+        <v>0.001604080583712822</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.05743526196680663</v>
+        <v>0.0764294708592472</v>
       </c>
       <c r="C83">
-        <v>0.03075716500242952</v>
+        <v>-0.04355693474289712</v>
       </c>
       <c r="D83">
-        <v>0.06475234345538609</v>
+        <v>0.0121580650454371</v>
       </c>
       <c r="E83">
-        <v>0.01329000267185801</v>
+        <v>-0.02411915339734936</v>
       </c>
       <c r="F83">
-        <v>0.062327222819743</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.07799589436877959</v>
+      </c>
+      <c r="G83">
+        <v>-0.03345024731817348</v>
+      </c>
+      <c r="H83">
+        <v>-0.04754560550601414</v>
+      </c>
+      <c r="I83">
+        <v>0.08254242879914767</v>
+      </c>
+      <c r="J83">
+        <v>-0.02846051355374168</v>
+      </c>
+      <c r="K83">
+        <v>0.07135983271217396</v>
+      </c>
+      <c r="L83">
+        <v>0.02894906963334366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.04915359472935966</v>
+        <v>0.03973633829287767</v>
       </c>
       <c r="C84">
-        <v>0.006618348756931456</v>
+        <v>0.02089099969835946</v>
       </c>
       <c r="D84">
-        <v>-0.05276963166603515</v>
+        <v>0.01535279568397553</v>
       </c>
       <c r="E84">
-        <v>-0.01804523902010002</v>
+        <v>0.0301380206475131</v>
       </c>
       <c r="F84">
-        <v>-0.003950378671970511</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.05977733169322137</v>
+      </c>
+      <c r="G84">
+        <v>-0.1168134261664559</v>
+      </c>
+      <c r="H84">
+        <v>-0.1503121206506287</v>
+      </c>
+      <c r="I84">
+        <v>0.120398368520455</v>
+      </c>
+      <c r="J84">
+        <v>-0.1142369752956225</v>
+      </c>
+      <c r="K84">
+        <v>0.2602580593261143</v>
+      </c>
+      <c r="L84">
+        <v>0.361116849241462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.103055443574966</v>
+        <v>0.1150937181685972</v>
       </c>
       <c r="C85">
-        <v>0.026109807751317</v>
+        <v>-0.04238719109743605</v>
       </c>
       <c r="D85">
-        <v>-0.03117772205574936</v>
+        <v>-0.03960143529368444</v>
       </c>
       <c r="E85">
-        <v>0.05886181498406248</v>
+        <v>-0.03633098145854401</v>
       </c>
       <c r="F85">
-        <v>0.02075725149493181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.0022982683878303</v>
+      </c>
+      <c r="G85">
+        <v>0.02536185965005721</v>
+      </c>
+      <c r="H85">
+        <v>0.1919024601501635</v>
+      </c>
+      <c r="I85">
+        <v>-0.0372547152860319</v>
+      </c>
+      <c r="J85">
+        <v>0.05218748399618331</v>
+      </c>
+      <c r="K85">
+        <v>-0.02630344520425587</v>
+      </c>
+      <c r="L85">
+        <v>0.01952536226409386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.06601645288189675</v>
+        <v>0.06979044237506082</v>
       </c>
       <c r="C86">
-        <v>0.07168104243294185</v>
+        <v>-0.02535695632704702</v>
       </c>
       <c r="D86">
-        <v>-0.03217157639108868</v>
+        <v>0.01761858368906952</v>
       </c>
       <c r="E86">
-        <v>0.002003280976942422</v>
+        <v>-0.0289077444334261</v>
       </c>
       <c r="F86">
-        <v>-0.02154921320351627</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03842449320656432</v>
+      </c>
+      <c r="G86">
+        <v>-0.03444110621160936</v>
+      </c>
+      <c r="H86">
+        <v>-0.09628579731572051</v>
+      </c>
+      <c r="I86">
+        <v>0.01862186649907849</v>
+      </c>
+      <c r="J86">
+        <v>-0.09563995384290445</v>
+      </c>
+      <c r="K86">
+        <v>0.2382699750542776</v>
+      </c>
+      <c r="L86">
+        <v>0.389324487041555</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1085244812500648</v>
+        <v>0.1177423727659791</v>
       </c>
       <c r="C87">
-        <v>0.05303502199332773</v>
+        <v>-0.06187313730743131</v>
       </c>
       <c r="D87">
-        <v>-0.04303983486120648</v>
+        <v>0.009180885359186564</v>
       </c>
       <c r="E87">
-        <v>0.02841745388187846</v>
+        <v>-0.02505791782381708</v>
       </c>
       <c r="F87">
-        <v>-0.1565057271653194</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.08085737524723478</v>
+      </c>
+      <c r="G87">
+        <v>0.1818956791143451</v>
+      </c>
+      <c r="H87">
+        <v>-0.1443751107546513</v>
+      </c>
+      <c r="I87">
+        <v>-0.07673595849101078</v>
+      </c>
+      <c r="J87">
+        <v>-0.0467809136240601</v>
+      </c>
+      <c r="K87">
+        <v>0.01811501838637212</v>
+      </c>
+      <c r="L87">
+        <v>-0.02805127000052341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.05800027082973142</v>
+        <v>0.0642992882958312</v>
       </c>
       <c r="C88">
-        <v>0.0264515345337383</v>
+        <v>-0.04557094004418076</v>
       </c>
       <c r="D88">
-        <v>-0.03544915789172273</v>
+        <v>-0.03864413506743315</v>
       </c>
       <c r="E88">
-        <v>0.01387590113530249</v>
+        <v>-0.005918757101106041</v>
       </c>
       <c r="F88">
-        <v>-0.01148436732673551</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01273252280608004</v>
+      </c>
+      <c r="G88">
+        <v>0.02656605465443467</v>
+      </c>
+      <c r="H88">
+        <v>0.0168917119703259</v>
+      </c>
+      <c r="I88">
+        <v>0.04590488430650314</v>
+      </c>
+      <c r="J88">
+        <v>-0.03389901697614348</v>
+      </c>
+      <c r="K88">
+        <v>0.02687817194530652</v>
+      </c>
+      <c r="L88">
+        <v>-0.01506184369237058</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.1002870134204499</v>
+        <v>0.1788074482596874</v>
       </c>
       <c r="C89">
-        <v>-0.316952118757567</v>
+        <v>0.3746492699875041</v>
       </c>
       <c r="D89">
-        <v>0.1048694664446739</v>
+        <v>0.02008550585650704</v>
       </c>
       <c r="E89">
-        <v>0.1062094852846179</v>
+        <v>-0.09503456758645668</v>
       </c>
       <c r="F89">
-        <v>-0.06507438448825224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.000303826732933214</v>
+      </c>
+      <c r="G89">
+        <v>-0.01961542448388327</v>
+      </c>
+      <c r="H89">
+        <v>-0.004955487764919088</v>
+      </c>
+      <c r="I89">
+        <v>0.06967382659360637</v>
+      </c>
+      <c r="J89">
+        <v>-0.08718357055627822</v>
+      </c>
+      <c r="K89">
+        <v>-0.03461256166975452</v>
+      </c>
+      <c r="L89">
+        <v>-0.04932937174897652</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.08741201824029507</v>
+        <v>0.1231371875796169</v>
       </c>
       <c r="C90">
-        <v>-0.2696538956064148</v>
+        <v>0.2754038536985446</v>
       </c>
       <c r="D90">
-        <v>0.1027735331187345</v>
+        <v>0.03770466926903534</v>
       </c>
       <c r="E90">
-        <v>0.04852161617152445</v>
+        <v>-0.03725488742961335</v>
       </c>
       <c r="F90">
-        <v>-0.05467515076653057</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01877932875612934</v>
+      </c>
+      <c r="G90">
+        <v>0.02440525784299624</v>
+      </c>
+      <c r="H90">
+        <v>-0.03737000859046314</v>
+      </c>
+      <c r="I90">
+        <v>0.0381503784206806</v>
+      </c>
+      <c r="J90">
+        <v>-0.04709886542041349</v>
+      </c>
+      <c r="K90">
+        <v>-0.01843151693668042</v>
+      </c>
+      <c r="L90">
+        <v>-0.01805769220826979</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.09779508324373259</v>
+        <v>0.08376951217995469</v>
       </c>
       <c r="C91">
-        <v>0.008139878170939236</v>
+        <v>-0.04650228419477374</v>
       </c>
       <c r="D91">
-        <v>-0.02942125291777171</v>
+        <v>-0.006148575962186419</v>
       </c>
       <c r="E91">
-        <v>0.009751402443512634</v>
+        <v>0.001282095289628047</v>
       </c>
       <c r="F91">
-        <v>0.001459031637706021</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.007778663369992139</v>
+      </c>
+      <c r="G91">
+        <v>-0.01820527210502802</v>
+      </c>
+      <c r="H91">
+        <v>0.09790071527885398</v>
+      </c>
+      <c r="I91">
+        <v>-0.01654218155458201</v>
+      </c>
+      <c r="J91">
+        <v>0.02691273079902251</v>
+      </c>
+      <c r="K91">
+        <v>-0.04698860037590744</v>
+      </c>
+      <c r="L91">
+        <v>-0.02564855648433993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.07140525137501708</v>
+        <v>0.1275210927797646</v>
       </c>
       <c r="C92">
-        <v>-0.3284811052885367</v>
+        <v>0.3254368842028138</v>
       </c>
       <c r="D92">
-        <v>0.07439737540734911</v>
+        <v>0.02551696160821727</v>
       </c>
       <c r="E92">
-        <v>0.08362886292914498</v>
+        <v>-0.04664151724262912</v>
       </c>
       <c r="F92">
-        <v>-0.02795442835898617</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.02858934001248819</v>
+      </c>
+      <c r="G92">
+        <v>-0.0126096462604495</v>
+      </c>
+      <c r="H92">
+        <v>0.04031621047362816</v>
+      </c>
+      <c r="I92">
+        <v>0.02280013630361147</v>
+      </c>
+      <c r="J92">
+        <v>-0.01990210395288278</v>
+      </c>
+      <c r="K92">
+        <v>0.006435029424008852</v>
+      </c>
+      <c r="L92">
+        <v>0.004337044822641849</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.0732448250721149</v>
+        <v>0.1305674943093844</v>
       </c>
       <c r="C93">
-        <v>-0.2739515739628961</v>
+        <v>0.3066533621371709</v>
       </c>
       <c r="D93">
-        <v>0.06485104816439856</v>
+        <v>0.01159291748726327</v>
       </c>
       <c r="E93">
-        <v>0.04734450363883957</v>
+        <v>-0.0212125474262669</v>
       </c>
       <c r="F93">
-        <v>-0.04129690545347515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.002939812153651114</v>
+      </c>
+      <c r="G93">
+        <v>-0.003469561658155756</v>
+      </c>
+      <c r="H93">
+        <v>-0.0131949015028515</v>
+      </c>
+      <c r="I93">
+        <v>-0.003212712612980161</v>
+      </c>
+      <c r="J93">
+        <v>0.003064613615961717</v>
+      </c>
+      <c r="K93">
+        <v>0.03713526684364672</v>
+      </c>
+      <c r="L93">
+        <v>-0.00639977551447693</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.1152549986852782</v>
+        <v>0.1142945280257754</v>
       </c>
       <c r="C94">
-        <v>0.04675718390224444</v>
+        <v>-0.06802322200926164</v>
       </c>
       <c r="D94">
-        <v>-0.03764482105807477</v>
+        <v>-0.01219727777661751</v>
       </c>
       <c r="E94">
-        <v>0.03195293334869821</v>
+        <v>-0.02400730856000875</v>
       </c>
       <c r="F94">
-        <v>0.01213417803845924</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.001748389615068552</v>
+      </c>
+      <c r="G94">
+        <v>-0.04360086797622487</v>
+      </c>
+      <c r="H94">
+        <v>0.1329658101605291</v>
+      </c>
+      <c r="I94">
+        <v>-0.003451267009474449</v>
+      </c>
+      <c r="J94">
+        <v>0.02984858884117121</v>
+      </c>
+      <c r="K94">
+        <v>-0.03750786624437855</v>
+      </c>
+      <c r="L94">
+        <v>-0.01258775166065816</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1179349419071515</v>
+        <v>0.1364081783430456</v>
       </c>
       <c r="C95">
-        <v>0.08683291405554738</v>
+        <v>-0.06385776636066336</v>
       </c>
       <c r="D95">
-        <v>-0.09981458052325622</v>
+        <v>-0.03265790410091327</v>
       </c>
       <c r="E95">
-        <v>0.0833818971230557</v>
+        <v>-0.0566281615792444</v>
       </c>
       <c r="F95">
-        <v>0.01842280087541384</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.08263620675162509</v>
+      </c>
+      <c r="G95">
+        <v>0.01692528851589008</v>
+      </c>
+      <c r="H95">
+        <v>-0.1729773047532147</v>
+      </c>
+      <c r="I95">
+        <v>0.07723070348168994</v>
+      </c>
+      <c r="J95">
+        <v>-0.03592338383775778</v>
+      </c>
+      <c r="K95">
+        <v>0.01435948369495348</v>
+      </c>
+      <c r="L95">
+        <v>0.07814345016406221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2603276245414559</v>
+        <v>0.186695300639052</v>
       </c>
       <c r="C97">
-        <v>-0.1424363502977519</v>
+        <v>0.01432020246077717</v>
       </c>
       <c r="D97">
-        <v>-0.06687662618715051</v>
+        <v>0.293215733328348</v>
       </c>
       <c r="E97">
-        <v>-0.8830231897574208</v>
+        <v>0.8920763235807071</v>
       </c>
       <c r="F97">
-        <v>-0.003087433443050537</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01556193286369715</v>
+      </c>
+      <c r="G97">
+        <v>0.03571488836907102</v>
+      </c>
+      <c r="H97">
+        <v>-0.07168116024252409</v>
+      </c>
+      <c r="I97">
+        <v>0.04272309436811496</v>
+      </c>
+      <c r="J97">
+        <v>-0.07347208444434088</v>
+      </c>
+      <c r="K97">
+        <v>-0.04353325684302788</v>
+      </c>
+      <c r="L97">
+        <v>-0.008345562156664139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.2918682296852773</v>
+        <v>0.2797783102530013</v>
       </c>
       <c r="C98">
-        <v>0.07649789718972867</v>
+        <v>-0.1156164989446526</v>
       </c>
       <c r="D98">
-        <v>-0.03390593995292508</v>
+        <v>-0.1335656834996102</v>
       </c>
       <c r="E98">
-        <v>0.107158030356461</v>
+        <v>0.04253441927749526</v>
       </c>
       <c r="F98">
-        <v>0.4547446809878684</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2502630178077583</v>
+      </c>
+      <c r="G98">
+        <v>-0.3250423722423723</v>
+      </c>
+      <c r="H98">
+        <v>-0.2288010549407477</v>
+      </c>
+      <c r="I98">
+        <v>-0.1929097021399538</v>
+      </c>
+      <c r="J98">
+        <v>0.1000022890973655</v>
+      </c>
+      <c r="K98">
+        <v>0.5160455004507272</v>
+      </c>
+      <c r="L98">
+        <v>-0.3678084757811078</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.2809006624993522</v>
+        <v>0.1597725165249525</v>
       </c>
       <c r="C99">
-        <v>0.2865705527794653</v>
+        <v>-0.1375748372405529</v>
       </c>
       <c r="D99">
-        <v>0.8397241405377169</v>
+        <v>0.5337004875487552</v>
       </c>
       <c r="E99">
-        <v>-0.04075473276522547</v>
+        <v>-0.1963965420653061</v>
       </c>
       <c r="F99">
-        <v>0.1808958496894064</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.6880881236149863</v>
+      </c>
+      <c r="G99">
+        <v>0.01108576914112567</v>
+      </c>
+      <c r="H99">
+        <v>0.1048823724009896</v>
+      </c>
+      <c r="I99">
+        <v>0.07544371151701908</v>
+      </c>
+      <c r="J99">
+        <v>0.04382869148670512</v>
+      </c>
+      <c r="K99">
+        <v>0.01253936192963069</v>
+      </c>
+      <c r="L99">
+        <v>0.1592302349759871</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05161615228078898</v>
+        <v>0.0494724664919257</v>
       </c>
       <c r="C101">
-        <v>-0.002639374044363949</v>
+        <v>-0.01618232830077489</v>
       </c>
       <c r="D101">
-        <v>-0.02380442478464156</v>
+        <v>-0.009807019122748581</v>
       </c>
       <c r="E101">
-        <v>0.01552601573945071</v>
+        <v>-0.01851743735771216</v>
       </c>
       <c r="F101">
-        <v>-0.030067938141597</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03444019701611183</v>
+      </c>
+      <c r="G101">
+        <v>0.03822361733108443</v>
+      </c>
+      <c r="H101">
+        <v>0.04536186686282678</v>
+      </c>
+      <c r="I101">
+        <v>0.04339181176148631</v>
+      </c>
+      <c r="J101">
+        <v>0.01133825789166387</v>
+      </c>
+      <c r="K101">
+        <v>0.04025244119545399</v>
+      </c>
+      <c r="L101">
+        <v>0.006104475799911446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
